--- a/Retailers Ledger/BELSAR.xlsx
+++ b/Retailers Ledger/BELSAR.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="15">
   <si>
     <t>NISHA GENERAL STORE-(661644683)</t>
   </si>
@@ -71,8 +71,8 @@
     <numFmt numFmtId="176" formatCode="[$-409]d\-mmm\-yyyy;@"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -89,6 +89,21 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -97,6 +112,43 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -106,44 +158,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -165,6 +187,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -173,16 +218,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -195,43 +232,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -260,25 +260,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -290,19 +386,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -314,133 +434,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -456,9 +456,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -468,6 +470,15 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -483,15 +494,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -512,6 +514,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -526,28 +543,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -556,7 +556,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -574,134 +574,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -718,6 +718,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1054,26 +1057,26 @@
   <dimension ref="A1:G61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="17" style="6" customWidth="1"/>
-    <col min="2" max="2" width="18" style="6" customWidth="1"/>
-    <col min="3" max="3" width="16.8571428571429" style="6" customWidth="1"/>
-    <col min="4" max="4" width="17.2857142857143" style="6" customWidth="1"/>
-    <col min="5" max="5" width="16.8571428571429" style="6" customWidth="1"/>
-    <col min="6" max="6" width="14" style="6" customWidth="1"/>
-    <col min="7" max="16382" width="9.14285714285714" style="6"/>
-    <col min="16383" max="16384" width="9.14285714285714" style="7"/>
+    <col min="1" max="1" width="17" style="7" customWidth="1"/>
+    <col min="2" max="2" width="18" style="7" customWidth="1"/>
+    <col min="3" max="3" width="16.8571428571429" style="7" customWidth="1"/>
+    <col min="4" max="4" width="17.2857142857143" style="7" customWidth="1"/>
+    <col min="5" max="5" width="16.8571428571429" style="7" customWidth="1"/>
+    <col min="6" max="6" width="14" style="7" customWidth="1"/>
+    <col min="7" max="16382" width="9.14285714285714" style="7"/>
+    <col min="16383" max="16384" width="9.14285714285714" style="8"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:2">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
+      <c r="B1" s="9"/>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:7">
       <c r="A2" s="4" t="s">
@@ -1116,7 +1119,8 @@
       <c r="D4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="6">
+        <f>IF(A4="","",E3+B4/1.04-C4)</f>
         <v>1000</v>
       </c>
     </row>
@@ -1130,7 +1134,8 @@
       <c r="D5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="6">
+        <f t="shared" ref="E5:E23" si="0">IF(A5="","",E4+B5/1.04-C5)</f>
         <v>0</v>
       </c>
     </row>
@@ -1144,7 +1149,8 @@
       <c r="D6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="6">
+        <f t="shared" si="0"/>
         <v>1000</v>
       </c>
     </row>
@@ -1158,53 +1164,126 @@
       <c r="D7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="6">
+        <f t="shared" si="0"/>
         <v>2000</v>
       </c>
     </row>
-    <row r="8" s="6" customFormat="1" spans="1:5">
+    <row r="8" s="7" customFormat="1" spans="1:5">
       <c r="A8" s="5">
         <v>44172</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="7">
         <v>2000</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="7" t="s">
         <v>12</v>
       </c>
       <c r="E8" s="6">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="9" s="6" customFormat="1" spans="1:5">
+    <row r="9" s="7" customFormat="1" spans="1:5">
       <c r="A9" s="5">
         <v>44172</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="7">
         <v>3120</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="E9" s="6">
+        <f t="shared" si="0"/>
         <v>3000</v>
       </c>
     </row>
-    <row r="10" s="6" customFormat="1"/>
-    <row r="11" s="6" customFormat="1"/>
-    <row r="12" s="6" customFormat="1"/>
-    <row r="13" s="7" customFormat="1"/>
-    <row r="14" s="7" customFormat="1"/>
-    <row r="15" s="7" customFormat="1"/>
-    <row r="16" s="7" customFormat="1"/>
-    <row r="17" s="7" customFormat="1"/>
-    <row r="18" s="7" customFormat="1"/>
-    <row r="19" s="7" customFormat="1"/>
-    <row r="20" s="7" customFormat="1"/>
-    <row r="21" s="7" customFormat="1"/>
-    <row r="22" s="6" customFormat="1"/>
-    <row r="23" s="6" customFormat="1"/>
-    <row r="24" s="6" customFormat="1"/>
+    <row r="10" s="7" customFormat="1" spans="5:5">
+      <c r="E10" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" s="7" customFormat="1" spans="5:5">
+      <c r="E11" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" s="7" customFormat="1" spans="5:5">
+      <c r="E12" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" s="8" customFormat="1" spans="5:5">
+      <c r="E13" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" s="8" customFormat="1" spans="5:5">
+      <c r="E14" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" s="8" customFormat="1" spans="5:5">
+      <c r="E15" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" s="8" customFormat="1" spans="5:5">
+      <c r="E16" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" s="8" customFormat="1" spans="5:5">
+      <c r="E17" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" s="8" customFormat="1" spans="5:5">
+      <c r="E18" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" s="8" customFormat="1" spans="5:5">
+      <c r="E19" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" s="8" customFormat="1" spans="5:5">
+      <c r="E20" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" s="8" customFormat="1" spans="5:5">
+      <c r="E21" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" s="7" customFormat="1" spans="5:5">
+      <c r="E22" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" s="7" customFormat="1" spans="5:5">
+      <c r="E23" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" s="7" customFormat="1"/>
     <row r="25" customFormat="1"/>
     <row r="26" customFormat="1"/>
     <row r="27" customFormat="1"/>
@@ -1217,40 +1296,40 @@
     <row r="34" customFormat="1"/>
     <row r="35" customFormat="1"/>
     <row r="36" customFormat="1"/>
-    <row r="37" s="6" customFormat="1"/>
-    <row r="38" s="6" customFormat="1"/>
-    <row r="39" s="6" customFormat="1"/>
+    <row r="37" s="7" customFormat="1"/>
+    <row r="38" s="7" customFormat="1"/>
+    <row r="39" s="7" customFormat="1"/>
     <row r="40" customFormat="1"/>
     <row r="41" customFormat="1"/>
     <row r="42" customFormat="1"/>
     <row r="43" customFormat="1"/>
     <row r="44" customFormat="1"/>
-    <row r="45" s="6" customFormat="1" spans="1:1">
-      <c r="A45" s="9"/>
-    </row>
-    <row r="46" s="6" customFormat="1" spans="1:1">
-      <c r="A46" s="9"/>
-    </row>
-    <row r="47" s="6" customFormat="1"/>
+    <row r="45" s="7" customFormat="1" spans="1:1">
+      <c r="A45" s="10"/>
+    </row>
+    <row r="46" s="7" customFormat="1" spans="1:1">
+      <c r="A46" s="10"/>
+    </row>
+    <row r="47" s="7" customFormat="1"/>
     <row r="48" customFormat="1"/>
     <row r="49" customFormat="1"/>
     <row r="50" customFormat="1"/>
     <row r="51" customFormat="1"/>
-    <row r="52" s="6" customFormat="1" spans="1:1">
-      <c r="A52" s="9"/>
-    </row>
-    <row r="53" s="6" customFormat="1"/>
-    <row r="54" s="6" customFormat="1"/>
+    <row r="52" s="7" customFormat="1" spans="1:1">
+      <c r="A52" s="10"/>
+    </row>
+    <row r="53" s="7" customFormat="1"/>
+    <row r="54" s="7" customFormat="1"/>
     <row r="55" customFormat="1"/>
     <row r="56" customFormat="1"/>
     <row r="57" customFormat="1"/>
-    <row r="58" s="6" customFormat="1" spans="1:1">
-      <c r="A58" s="9"/>
-    </row>
-    <row r="59" s="6" customFormat="1"/>
-    <row r="60" s="6" customFormat="1"/>
-    <row r="61" s="6" customFormat="1" spans="1:1">
-      <c r="A61" s="9"/>
+    <row r="58" s="7" customFormat="1" spans="1:1">
+      <c r="A58" s="10"/>
+    </row>
+    <row r="59" s="7" customFormat="1"/>
+    <row r="60" s="7" customFormat="1"/>
+    <row r="61" s="7" customFormat="1" spans="1:1">
+      <c r="A61" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1264,10 +1343,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -1329,7 +1408,8 @@
       <c r="D4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="6">
+        <f>IF(A4="","",E3+B4/1.04-C4)</f>
         <v>3000</v>
       </c>
     </row>
@@ -1343,7 +1423,8 @@
       <c r="D5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="6">
+        <f t="shared" ref="E5:E23" si="0">IF(A5="","",E4+B5/1.04-C5)</f>
         <v>0</v>
       </c>
     </row>
@@ -1357,7 +1438,8 @@
       <c r="D6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="6">
+        <f t="shared" si="0"/>
         <v>1000</v>
       </c>
     </row>
@@ -1371,7 +1453,8 @@
       <c r="D7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="6">
+        <f t="shared" si="0"/>
         <v>3000</v>
       </c>
     </row>
@@ -1385,7 +1468,8 @@
       <c r="D8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="6">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1399,7 +1483,8 @@
       <c r="D9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="6">
+        <f t="shared" si="0"/>
         <v>3000</v>
       </c>
     </row>
@@ -1407,15 +1492,102 @@
       <c r="A10" s="5">
         <v>44175</v>
       </c>
-      <c r="B10" s="1"/>
       <c r="C10" s="1">
         <v>3000</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="6">
+        <f t="shared" si="0"/>
         <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="5">
+        <v>44177</v>
+      </c>
+      <c r="B11" s="1">
+        <v>3120</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="6">
+        <f t="shared" si="0"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="12" spans="5:5">
+      <c r="E12" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="5:5">
+      <c r="E13" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="5:5">
+      <c r="E14" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="5:5">
+      <c r="E15" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="5:5">
+      <c r="E16" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="5:5">
+      <c r="E17" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="5:5">
+      <c r="E18" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="5:5">
+      <c r="E19" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="5:5">
+      <c r="E20" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="5:5">
+      <c r="E21" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="5:5">
+      <c r="E22" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="5:5">
+      <c r="E23" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
   </sheetData>
@@ -1431,10 +1603,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:C1"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -1496,7 +1668,8 @@
       <c r="D4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="6">
+        <f>IF(A4="","",E3+B4/1.04-C4)</f>
         <v>2000</v>
       </c>
     </row>
@@ -1510,7 +1683,8 @@
       <c r="D5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="6">
+        <f t="shared" ref="E5:E23" si="0">IF(A5="","",E4+B5/1.04-C5)</f>
         <v>0</v>
       </c>
     </row>
@@ -1524,7 +1698,8 @@
       <c r="D6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="6">
+        <f t="shared" si="0"/>
         <v>1000</v>
       </c>
     </row>
@@ -1538,7 +1713,8 @@
       <c r="D7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="6">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1552,7 +1728,8 @@
       <c r="D8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="6">
+        <f t="shared" si="0"/>
         <v>2000</v>
       </c>
     </row>
@@ -1566,7 +1743,8 @@
       <c r="D9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="6">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1580,8 +1758,96 @@
       <c r="D10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="6">
+        <f t="shared" si="0"/>
         <v>2000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="5">
+        <v>44177</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="6">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="12" spans="5:5">
+      <c r="E12" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="5:5">
+      <c r="E13" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="5:5">
+      <c r="E14" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="5:5">
+      <c r="E15" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="5:5">
+      <c r="E16" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="5:5">
+      <c r="E17" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="5:5">
+      <c r="E18" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="5:5">
+      <c r="E19" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="5:5">
+      <c r="E20" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="5:5">
+      <c r="E21" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="5:5">
+      <c r="E22" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="5:5">
+      <c r="E23" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
   </sheetData>
